--- a/medicine/Enfance/François_Batet/François_Batet.xlsx
+++ b/medicine/Enfance/François_Batet/François_Batet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Batet</t>
+          <t>François_Batet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Batet, pseudonyme de Francisco Batet Pellejero, né le 21 septembre 1921 à Barcelone[1], et mort le 5 décembre 2015 à Clamart, est un illustrateur espagnol, connu pour son travail d'illustration de littérature d'enfance et de jeunesse chez la maison d'édition Hachette.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Batet, pseudonyme de Francisco Batet Pellejero, né le 21 septembre 1921 à Barcelone, et mort le 5 décembre 2015 à Clamart, est un illustrateur espagnol, connu pour son travail d'illustration de littérature d'enfance et de jeunesse chez la maison d'édition Hachette.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Batet</t>
+          <t>François_Batet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francisco Batet Pellejero suit des cours de peinture à l'Academia Tárrega à Barcelone. Il y rencontre une artiste peintre, Angelina Lavernia, qu'il épouse le 5 janvier 1949[2]. Il dessine sur les scénarios de José Mallorquí les aventures en bande dessinée d'El Coyote jusqu'en 1951.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francisco Batet Pellejero suit des cours de peinture à l'Academia Tárrega à Barcelone. Il y rencontre une artiste peintre, Angelina Lavernia, qu'il épouse le 5 janvier 1949. Il dessine sur les scénarios de José Mallorquí les aventures en bande dessinée d'El Coyote jusqu'en 1951.
 En 1951, le couple s’établit en France. Ils y ont deux enfants : François, né en 1956, et Carmen, née en 1958.
-François Batet travaille alors comme illustrateur pour divers périodiques (France-Soir, France Dimanche, Confidences). Il se tourne ensuite vers l’illustration de romans pour la jeunesse, d’abord pour le compte des Éditions Gautier-Languereau puis pour celui des Éditions Hachette[3] (collections Bibliothèque rose, Bibliothèque verte  et Idéal-Bibliothèque). Il illustre en particulier de nombreux romans de Jules Verne ainsi que plusieurs classiques du roman d'aventures.
-Dès 1977, il se consacre à la peinture ; son thème de prédilection est la représentation de personnages féminins des années 1920 dans le style Art déco[4].
-François Batet meurt le 5 décembre 2015 à Clamart[5],[6].
+François Batet travaille alors comme illustrateur pour divers périodiques (France-Soir, France Dimanche, Confidences). Il se tourne ensuite vers l’illustration de romans pour la jeunesse, d’abord pour le compte des Éditions Gautier-Languereau puis pour celui des Éditions Hachette (collections Bibliothèque rose, Bibliothèque verte  et Idéal-Bibliothèque). Il illustre en particulier de nombreux romans de Jules Verne ainsi que plusieurs classiques du roman d'aventures.
+Dès 1977, il se consacre à la peinture ; son thème de prédilection est la représentation de personnages féminins des années 1920 dans le style Art déco.
+François Batet meurt le 5 décembre 2015 à Clamart,.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Batet</t>
+          <t>François_Batet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,17 +562,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-El Coyote: El secreto de la diligencia, Clíper, 1946.
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>El Coyote: El secreto de la diligencia, Clíper, 1946.
 El Coyote: Río turbulento, Clíper, 1948.
-El Coyote, Éditions Agualarga, 1970.
-Illustrations
-Collection « Bibliothèque Hachette », Hachette
-1957 : Sur la piste de l'Orégon[7], Mary Jane Carr.
+El Coyote, Éditions Agualarga, 1970.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Batet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Batet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque Hachette », Hachette</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1957 : Sur la piste de l'Orégon, Mary Jane Carr.
 1958 : Le Chef au masque d'or, René Guillot.
-1958 : La Vocation d'Irène, Lorna Hill.
-Collection « Bibliothèque verte », Hachette
-Série Béatrice de Georges Chaulet :
+1958 : La Vocation d'Irène, Lorna Hill.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Batet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Batet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Collection « Bibliothèque verte », Hachette</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Série Béatrice de Georges Chaulet :
 1963 : Une rapière pour Béatrice (no 225) ;
 1965 : Béatrice au grand galop (no 274) ;
 1965 : Béatrice à l'abordage (no 285).
@@ -600,7 +694,7 @@
 Hors séries :
 1952 : La Cité sous la montagne, Henry Rider Haggard ;
 1955 : Aventures et combats, Louis Garneray ;
-1956 : L'Archer fantastique[8], Frank Crisp ;
+1956 : L'Archer fantastique, Frank Crisp ;
 1956 : Lieutenant de Surcouf, Louis Garneray ;
 1957 : Base clandestine, les aventures de Luc Dassaut, Henri Vernes ;
 1957 : Frères des Brumes, Madeleine Grattan (no 296) ;
@@ -615,7 +709,7 @@
 1960 : Djéri à l'éléphant, Jean d'Esme (no 171) ;
 1960 : Ma vie de clown, Grock avec la collaboration de Ernst Konstantin (no 153) ;
 1960 : Irène à l'Opéra, Lorna Hill (no 154) ;
-1961 : Les Clameurs se sont tues, Jean Denys[9] (no 177) ;
+1961 : Les Clameurs se sont tues, Jean Denys (no 177) ;
 1961 : Deux des Glénans, Jean Merrien (no 193) ;
 1962 : Ballerine à l'Opéra (Sur les pas d'Irène) de Lorna Hill (no 199) ;
 1962 : Une fille pilotait, Betty Cavanna (no 202) ;
@@ -629,7 +723,7 @@
 1963 : Le Chevalier de Pardaillan, Michel Zévaco (no 235) ;
 1963 : L'Homme du vendredi, Marc Soriano (no 238) ;
 1963 : Poupah l'éléphant, André Demaison (no 239) ;
-1963 : Le Vicomte de Bragelonne[10], Alexandre Dumas (no 239) ;
+1963 : Le Vicomte de Bragelonne, Alexandre Dumas (no 239) ;
 1964 : Le Dernier des Mohicans, Fenimore Cooper (no 98) ;
 1964 : Le Club des bis, Francis Didelot (no 258) ;
 1964 : Au hasard de la route, Louise Anker-Garin (no 255) ;
@@ -643,19 +737,19 @@
 1966 : Piège pour un braconnier, Jean-François Norcy (no 314) ;
 1967 : Les Garçons de l'île aux renards, Eilis Dillon (no 321) ;
 1967 : Le Scarabée noir, Nicole Chantal (no 324) ;
-1967 : Le Lieutenant Robin Crusoé[11] (no 325) ;
-1967 : La Fiancée de la forêt[12], Robert Nathan (no 342) ;
+1967 : Le Lieutenant Robin Crusoé (no 325) ;
+1967 : La Fiancée de la forêt, Robert Nathan (no 342) ;
 1967 : Monsieur Mystère et Cie, Sid Fleischman (no 344) ;
-1968 : Le Fantôme de Barbe-Noire[13], Ben Stahl (no 350) ;
+1968 : Le Fantôme de Barbe-Noire, Ben Stahl (no 350) ;
 1968 : La Patrouille sous la mer, Antoine Reboul (no 362) ;
 1968 : Treize à la douzaine, Frank et Ernestine Gilbreth (no 364) ;
 1968 : Tu ne tueras point, Antoine Reboul (no 368) ;
 1968 : Eugénie Grandet, Honoré de Balzac (no 106) ;
 1969 : Le Révolté de l'Alaska, Walt Morley (no 401) ;
-1970 : Le Trésor du château sans nom[14], Pierre Gaspard-Huit (no 424) ;
+1970 : Le Trésor du château sans nom, Pierre Gaspard-Huit (no 424) ;
 1970 : Allo, Luc? Ici, Martine, Olivier Séchan ;
 1970 : Le Roman d'un enfant, Pierre Loti ;
-1971 : Les Mésaventures de Merlin Jones[15], Mary Carey (no 470) ;
+1971 : Les Mésaventures de Merlin Jones, Mary Carey (no 470) ;
 1971 : Maroussia, P.-J. Stahl ;
 1974 : Les Derniers Jours de Pompéi, Edward Bulwer-Lytton ;
 1974 : Le Trésor de la Santa-Cruz, Amiral Ellsberg ;
@@ -663,9 +757,47 @@
 1977 : La Guitare andalouse, Saint-Marcoux ;
 1977 : Jeunesse oblige, Auteurs en herbe ;
 1978 : Le Fantôme de l'Étalon noir, Walter Farley.
-1979 : Les Patins d'argent, Mary Mapes Dodge ;
-Collection  « Bibliothèque rose »[16], Hachette
-Série Comtesse de Ségur :
+1979 : Les Patins d'argent, Mary Mapes Dodge ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Batet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Batet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Collection  « Bibliothèque rose »[16], Hachette</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Série Comtesse de Ségur :
 1972: Le Général Dourakine (avec Jeanne Hives) :
 1979 : L'Auberge de l'Ange gardien ;
 1979 : Diloy le chemineau ;
@@ -702,7 +834,7 @@
 1977 : La Grande Croisière de Domino ;
 1978 : Domino et le Japonais ;
 1979 : Domino dans le souterrain.
-Série Éric[17] de Hans Peterson :
+Série Éric de Hans Peterson :
 1962 : Éric et Coquette (no 95) ;
 1964 : Le Grand Voyage d'Éric (no 146) ;
 1966 : Éric et le chien trouvé (no 223) ;
@@ -723,37 +855,75 @@
 1968 : Le Mystère du message secret (no 294) ;
 1971 : Le Mystère du chapeau pointu ;
 1973 : Histoires du coffre à jouets.
-Série Série Secret[18] de Mary Jane[19]
-1974 : Le Secret des trois éclairs[20] ;
-1975 : Le Secret des œillets bleus[21] ;
-1975 : Le Secret du cap des Brumes[22] ;
-1976 : Le Secret du clair de lune[23].
+Série Série Secret de Mary Jane
+1974 : Le Secret des trois éclairs ;
+1975 : Le Secret des œillets bleus ;
+1975 : Le Secret du cap des Brumes ;
+1976 : Le Secret du clair de lune.
 Hors-série :
 1959 : Doudou s'amuse, Madeleine Charvet (no 45) ;
 1959 : Quatre filles campaient, Maria de Crisenoy (no 43) ;
 1960 : Rémi passe-partout, David Daniell (no 65) ;
-1960 : Le Chat du capitaine[24], Ursula Williams (no 70) ;
+1960 : Le Chat du capitaine, Ursula Williams (no 70) ;
 1961 : Les Locataires de la Maison jaune, Kate Douglas Wiggin (no 75) ;
 1962 : Mon ami Caramel, Louise Anker-Garin (no 106) ;
 1962 : Seul sur les routes, Lucie Rauzier-Fontayne (no 114) ;
 1963 : Trois cousins dans un moulin, Olivier Séchan (no 123) ;
-1964 : Au galop cowboy ![25], Henry V. Larom (no 148) ;
+1964 : Au galop cowboy !, Henry V. Larom (no 148) ;
 1964 : Mic et Moune au Grand domaine, Marc Fontenoy (no 161) ;
-1964 : Le Mystère du rodéo[26], Henry V. Larom (no 164) ;
+1964 : Le Mystère du rodéo, Henry V. Larom (no 164) ;
 1965 : Suzy, de la police montée, Muriel Denison (no 160) ;
 1965 : Mic et Moune chez son altesse, Marc Fontenoy (no 179) ;
-1965 : Le Mystère du ranch[27], Henry V. Larom (no 187) ;
+1965 : Le Mystère du ranch, Henry V. Larom (no 187) ;
 1966 : Cavalcade au pensionnat, Lucienne Lasfargeas (no 217) ;
 1966 : La Grotte aux oubliettes, Jeanne Foulquier (no 204) ;
-1969 : La Revanche de Pablito[28], Walt Disney (no 317) ;
+1969 : La Revanche de Pablito, Walt Disney (no 317) ;
 1970 : L'Espion était à l'écoute, Lucienne Lasfargeas (no 353) ;
 1970 : Le Roman d'un enfant, Pierre Loti (no 412) ;
 1974 : Un chien pour Dominique, Enid Blyton ;
 1975 : Le Secret des œillets bleus, Mary Jane ;
 1975 : Le Secret du cap des Brumes, Mary Jane ;
-1976 : Le Secret du clair de lune, Mary Jane.
-Collection « Idéal-Bibliothèque », Hachette
-Série Luc et Martine d'Olivier Séchan:
+1976 : Le Secret du clair de lune, Mary Jane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Batet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Batet</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collection « Idéal-Bibliothèque », Hachette</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Série Luc et Martine d'Olivier Séchan:
 1959 : Allô, Luc ? Ici, Martine…, (no 173) ;
 1960 : Luc et Martine font équipe, (no 189) ;
 1961 : Luc et Martine à la tour blanche, (no 216).
@@ -775,7 +945,7 @@
 1956 : Le Petit Cornac, Willis Lindquist (no 111) ;
 1957 : Norah joue et gagne, Diélette (no 133) ;
 1957 : La Maison du chèvrefeuille, Lucie Rauzier-Fontayne (no 136) ;
-1957 : La Revanche de Pablito, Walt Disney[29] (no 140) ;
+1957 : La Revanche de Pablito, Walt Disney (no 140) ;
 1958 : Norah et l'automate, Diélette (no 164) ;
 1958 : Sidi Safi, Albert Laredo et Joseph Franceschi ;
 1958 : Chercheur de pétrole au Sahara, Bernard Larivière (no 60) ;
@@ -787,7 +957,7 @@
 1960 : Le Sourire de Brigitte, Lucie Rauzier-Fontayne (no 199) ;
 1960 : Ivanhoé, Walter Scott (no 197) ;
 1960 : La Cordée magnifique, James Ramsey Ullmann (no 184) ;
-1960 : Ben-Hur[30], Lewis Wallace (no 86) ;
+1960 : Ben-Hur, Lewis Wallace (no 86) ;
 1961 : De la Terre à la Lune, Jules Verne (no 213) ;
 1961 : Les Tribulations d'un Chinois en Chine, Jules Verne (no 201) ;
 1961 : Danseuse Étoile, Claude Bessy (no 204) ;
@@ -802,23 +972,61 @@
 1963 : La Chanson merveilleuse, Lucie Rauzier-Fontayne (no 246) ;
 1964 : Sam chien du Texas, Fred Gipson (no 261) ;
 1964 : Hélène ballerine, Linda Gray (no 266) ;
-1965 : Tessa la Fanfaronne[31], Marie-Louise Fischer (no 276) ;
+1965 : Tessa la Fanfaronne, Marie-Louise Fischer (no 276) ;
 1965 : Hélène aux feux de la rampe, Linda Gray (no 277) ;
 1965 : Un trappeur de quinze ans, Paul Annixter (no 285) ;
 1966 : Pirate malgré moi, May d'Alençon (no 300) ;
 1966 : Thierry la Fronde : Les chevaliers de Sologne, Jean-Claude Deret (no 305) ;
 1966 : Le Bathyscaphe d'or, Georges Chaulet (no 307) ;
 1967 : Thierry la Fronde : Les Premières armes de Thierry la Fronde, Jean-Claude Deret (no 329) ;
-1967 : Annette dans la sierra[32], Walt Disney (no 330) ;
+1967 : Annette dans la sierra, Walt Disney (no 330) ;
 1968  : La Guitare andalouse, Saint-Marcoux (no 349) ;
 1969 : Un poney dans la tempête, Marguerite Henry (no 354) ;
 1969 : Le Torero de Cordoue, René Guillot (no 358) ;
 1969 : Les Cinq Cents Millions de la Bégum, Jules Verne (no 360) ;
 1970  : Le Voleur de lumière, Saint-Marcoux (no 362) ;
 1971 : Soleil de mon Espagne, Paul-Jacques Bonzon (no 374) ;
-1972 : L'Étrange Histoire de l'apprentie sorcière, Mary Norton.
-Autres collections
-1956 : Bob et Line, collection Les Albums roses, Hachette.
+1972 : L'Étrange Histoire de l'apprentie sorcière, Mary Norton.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>François_Batet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Batet</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres collections</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1956 : Bob et Line, collection Les Albums roses, Hachette.
 1960 : Cosette, adapté par Denis-François ; coll. Les Albums roses, Hachette.
 1957 : Robin des bois, Suzanne Pairault ; coll. : Collection des Grands Romanciers, Hachette.
 1958 : L'Histoire d'un vrai voyage, Mamita ; coll. : Collection des Grands Romanciers, Hachette.
